--- a/doc/wiring_servos.xlsx
+++ b/doc/wiring_servos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\myTank\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{753A29BD-3108-4200-831C-DBE0BD8C9367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB895354-83CF-42ED-A4E0-B69D572A65D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
+    <workbookView xWindow="7200" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Servo Connector</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>PWM B</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4 R330</t>
+  </si>
+  <si>
+    <t>Led</t>
+  </si>
+  <si>
+    <t>Connector</t>
   </si>
 </sst>
 </file>
@@ -61,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -132,6 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D993DD16-9225-41BE-88F9-744A944DA220}">
-  <dimension ref="A4:C9"/>
+  <dimension ref="A4:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +507,34 @@
       </c>
       <c r="C9" s="2"/>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/wiring_servos.xlsx
+++ b/doc/wiring_servos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\myTank\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB895354-83CF-42ED-A4E0-B69D572A65D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09026E1A-FB46-4775-9734-B1B4E639DFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
+    <workbookView xWindow="7200" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Servo Connector</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>Connector</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>dth data</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>tx</t>
+  </si>
+  <si>
+    <t>vcc</t>
   </si>
 </sst>
 </file>
@@ -73,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +143,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,11 +170,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -151,6 +199,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D993DD16-9225-41BE-88F9-744A944DA220}">
-  <dimension ref="A4:C16"/>
+  <dimension ref="A4:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +586,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/wiring_servos.xlsx
+++ b/doc/wiring_servos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\myTank\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09026E1A-FB46-4775-9734-B1B4E639DFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F0A2E-4A55-48CD-8239-8AD8F8D38F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Servo Connector</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>vcc</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>close</t>
   </si>
 </sst>
 </file>
@@ -521,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D993DD16-9225-41BE-88F9-744A944DA220}">
-  <dimension ref="A4:E22"/>
+  <dimension ref="A4:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +629,24 @@
       </c>
       <c r="C22" s="11"/>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/wiring_servos.xlsx
+++ b/doc/wiring_servos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\myTank\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F0A2E-4A55-48CD-8239-8AD8F8D38F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6085F83A-43C5-4C7C-AAD9-D25EAB6AB632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Servo Connector</t>
   </si>
@@ -82,15 +83,62 @@
   </si>
   <si>
     <t>close</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>192.168.2.120</t>
+  </si>
+  <si>
+    <t>MYTANK</t>
+  </si>
+  <si>
+    <t>Routeur</t>
+  </si>
+  <si>
+    <t>Public IP</t>
+  </si>
+  <si>
+    <t>Local IP</t>
+  </si>
+  <si>
+    <t>192.168.4.1</t>
+  </si>
+  <si>
+    <t>192.168.4.10</t>
+  </si>
+  <si>
+    <t>Raspberry pi 9</t>
+  </si>
+  <si>
+    <t>Tenda</t>
+  </si>
+  <si>
+    <t>Web Admin</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>mytank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -198,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -211,6 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D993DD16-9225-41BE-88F9-744A944DA220}">
   <dimension ref="A4:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -650,4 +699,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93493B3-9FDB-405D-A191-B3D045A4AE49}">
+  <dimension ref="B3:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="6" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>8080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>8000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/wiring_servos.xlsx
+++ b/doc/wiring_servos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\myTank\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6085F83A-43C5-4C7C-AAD9-D25EAB6AB632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B76717-B4DD-4D05-95B5-EEDB2C8FBE3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
+    <workbookView xWindow="7200" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1D473D71-5062-4AB4-8AA6-B82E4F1806F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Servo Connector</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>mytank</t>
+  </si>
+  <si>
+    <t>Portainer</t>
+  </si>
+  <si>
+    <t>Samba</t>
+  </si>
+  <si>
+    <t>Docker Port</t>
+  </si>
+  <si>
+    <t>ssh</t>
   </si>
 </sst>
 </file>
@@ -145,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +227,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -260,6 +290,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,10 +736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93493B3-9FDB-405D-A191-B3D045A4AE49}">
-  <dimension ref="B3:I7"/>
+  <dimension ref="B3:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +750,7 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -727,8 +760,11 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -741,43 +777,99 @@
       <c r="E5">
         <v>8080</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>80</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="8">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>8000</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <v>8000</v>
       </c>
+      <c r="J7" s="8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>9000</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8">
+        <v>9000</v>
+      </c>
+      <c r="J8" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>445</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
+        <v>445</v>
+      </c>
+      <c r="J9" s="8">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13">
+        <v>22</v>
+      </c>
+      <c r="J10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
